--- a/Main/SWP annual total deliveries.xlsx
+++ b/Main/SWP annual total deliveries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armen\Desktop\Drought Impacts\SoCal Indicators\Main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armen\Desktop\Drought Indicators - SoCal\Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7618E974-69E6-48D3-8373-47B681DAD14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A34478-0415-4387-9406-5D5D3D973D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table b-4" sheetId="10" r:id="rId1"/>
@@ -858,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -883,6 +883,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -890,6 +897,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -925,21 +938,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,9 +945,6 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -985,6 +980,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -2517,8 +2515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B0D547-ED80-4D0D-B447-C88E5F2EDFD1}">
   <dimension ref="A1:AN60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K1"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2568,59 +2566,59 @@
       <c r="A1" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="24" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="38" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="24" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="38" t="s">
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="24" t="s">
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="40" t="s">
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="AN1" s="41" t="s">
+      <c r="AN1" s="25" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2750,7 +2748,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="3"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="42" t="s">
+      <c r="N3" s="26" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="4" t="s">
@@ -9755,516 +9753,516 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87422FAC-D91D-421B-A850-0A527C970FD0}">
   <dimension ref="A1:HX66"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="FZ13" sqref="AT13:FZ18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:232" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="27" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="30" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="28" t="s">
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28"/>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28"/>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="28"/>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="28"/>
-      <c r="BD1" s="28"/>
-      <c r="BE1" s="28"/>
-      <c r="BF1" s="28"/>
-      <c r="BG1" s="28"/>
-      <c r="BH1" s="28"/>
-      <c r="BI1" s="28"/>
-      <c r="BJ1" s="28"/>
-      <c r="BK1" s="28"/>
-      <c r="BL1" s="28"/>
-      <c r="BM1" s="28"/>
-      <c r="BN1" s="28"/>
-      <c r="BO1" s="28"/>
-      <c r="BP1" s="28"/>
-      <c r="BQ1" s="28"/>
-      <c r="BR1" s="28"/>
-      <c r="BS1" s="28"/>
-      <c r="BT1" s="28"/>
-      <c r="BU1" s="28"/>
-      <c r="BV1" s="28"/>
-      <c r="BW1" s="28"/>
-      <c r="BX1" s="28"/>
-      <c r="BY1" s="28"/>
-      <c r="BZ1" s="28"/>
-      <c r="CA1" s="28"/>
-      <c r="CB1" s="28"/>
-      <c r="CC1" s="28"/>
-      <c r="CD1" s="28"/>
-      <c r="CE1" s="28"/>
-      <c r="CF1" s="28"/>
-      <c r="CG1" s="28"/>
-      <c r="CH1" s="28"/>
-      <c r="CI1" s="28"/>
-      <c r="CJ1" s="28"/>
-      <c r="CK1" s="28"/>
-      <c r="CL1" s="28"/>
-      <c r="CM1" s="28"/>
-      <c r="CN1" s="28"/>
-      <c r="CO1" s="28"/>
-      <c r="CP1" s="28"/>
-      <c r="CQ1" s="28"/>
-      <c r="CR1" s="28"/>
-      <c r="CS1" s="28"/>
-      <c r="CT1" s="28"/>
-      <c r="CU1" s="28"/>
-      <c r="CV1" s="28"/>
-      <c r="CW1" s="28"/>
-      <c r="CX1" s="28"/>
-      <c r="CY1" s="28"/>
-      <c r="CZ1" s="28"/>
-      <c r="DA1" s="28"/>
-      <c r="DB1" s="28"/>
-      <c r="DC1" s="28"/>
-      <c r="DD1" s="28"/>
-      <c r="DE1" s="28"/>
-      <c r="DF1" s="28"/>
-      <c r="DG1" s="28"/>
-      <c r="DH1" s="28"/>
-      <c r="DI1" s="28"/>
-      <c r="DJ1" s="28"/>
-      <c r="DK1" s="28"/>
-      <c r="DL1" s="28"/>
-      <c r="DM1" s="28"/>
-      <c r="DN1" s="28"/>
-      <c r="DO1" s="28"/>
-      <c r="DP1" s="28"/>
-      <c r="DQ1" s="28"/>
-      <c r="DR1" s="28"/>
-      <c r="DS1" s="28"/>
-      <c r="DT1" s="28"/>
-      <c r="DU1" s="28"/>
-      <c r="DV1" s="28"/>
-      <c r="DW1" s="28"/>
-      <c r="DX1" s="28"/>
-      <c r="DY1" s="28"/>
-      <c r="DZ1" s="28"/>
-      <c r="EA1" s="28"/>
-      <c r="EB1" s="28"/>
-      <c r="EC1" s="28"/>
-      <c r="ED1" s="28"/>
-      <c r="EE1" s="28"/>
-      <c r="EF1" s="28"/>
-      <c r="EG1" s="28"/>
-      <c r="EH1" s="28"/>
-      <c r="EI1" s="28"/>
-      <c r="EJ1" s="28"/>
-      <c r="EK1" s="28"/>
-      <c r="EL1" s="28"/>
-      <c r="EM1" s="28"/>
-      <c r="EN1" s="28"/>
-      <c r="EO1" s="28"/>
-      <c r="EP1" s="28"/>
-      <c r="EQ1" s="28"/>
-      <c r="ER1" s="28"/>
-      <c r="ES1" s="28"/>
-      <c r="ET1" s="28"/>
-      <c r="EU1" s="28"/>
-      <c r="EV1" s="28"/>
-      <c r="EW1" s="28"/>
-      <c r="EX1" s="28"/>
-      <c r="EY1" s="28"/>
-      <c r="EZ1" s="28"/>
-      <c r="FA1" s="28"/>
-      <c r="FB1" s="28"/>
-      <c r="FC1" s="28"/>
-      <c r="FD1" s="28"/>
-      <c r="FE1" s="28"/>
-      <c r="FF1" s="28"/>
-      <c r="FG1" s="28"/>
-      <c r="FH1" s="28"/>
-      <c r="FI1" s="28"/>
-      <c r="FJ1" s="28"/>
-      <c r="FK1" s="28"/>
-      <c r="FL1" s="28"/>
-      <c r="FM1" s="28"/>
-      <c r="FN1" s="28"/>
-      <c r="FO1" s="28"/>
-      <c r="FP1" s="28"/>
-      <c r="FQ1" s="28"/>
-      <c r="FR1" s="28"/>
-      <c r="FS1" s="28"/>
-      <c r="FT1" s="28"/>
-      <c r="FU1" s="28"/>
-      <c r="FV1" s="28"/>
-      <c r="FW1" s="28"/>
-      <c r="FX1" s="28"/>
-      <c r="FY1" s="28"/>
-      <c r="FZ1" s="28"/>
-      <c r="GA1" s="28"/>
-      <c r="GB1" s="28"/>
-      <c r="GC1" s="28"/>
-      <c r="GD1" s="28"/>
-      <c r="GE1" s="28"/>
-      <c r="GF1" s="28"/>
-      <c r="GG1" s="28"/>
-      <c r="GH1" s="28"/>
-      <c r="GI1" s="28"/>
-      <c r="GJ1" s="28"/>
-      <c r="GK1" s="28"/>
-      <c r="GL1" s="28"/>
-      <c r="GM1" s="28"/>
-      <c r="GN1" s="28"/>
-      <c r="GO1" s="28"/>
-      <c r="GP1" s="28"/>
-      <c r="GQ1" s="28"/>
-      <c r="GR1" s="28"/>
-      <c r="GS1" s="28"/>
-      <c r="GT1" s="28"/>
-      <c r="GU1" s="28"/>
-      <c r="GV1" s="28"/>
-      <c r="GW1" s="28"/>
-      <c r="GX1" s="28"/>
-      <c r="GY1" s="28"/>
-      <c r="GZ1" s="28"/>
-      <c r="HA1" s="28"/>
-      <c r="HB1" s="28"/>
-      <c r="HC1" s="28"/>
-      <c r="HD1" s="28"/>
-      <c r="HE1" s="28"/>
-      <c r="HF1" s="28"/>
-      <c r="HG1" s="28"/>
-      <c r="HH1" s="28"/>
-      <c r="HI1" s="28"/>
-      <c r="HJ1" s="28"/>
-      <c r="HK1" s="28"/>
-      <c r="HL1" s="28"/>
-      <c r="HM1" s="28"/>
-      <c r="HN1" s="28"/>
-      <c r="HO1" s="28"/>
-      <c r="HP1" s="28"/>
-      <c r="HQ1" s="28"/>
-      <c r="HR1" s="28"/>
-      <c r="HS1" s="28"/>
-      <c r="HT1" s="28"/>
-      <c r="HU1" s="28"/>
-      <c r="HV1" s="28"/>
-      <c r="HW1" s="29"/>
-      <c r="HX1" s="43" t="s">
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="33"/>
+      <c r="AY1" s="33"/>
+      <c r="AZ1" s="33"/>
+      <c r="BA1" s="33"/>
+      <c r="BB1" s="33"/>
+      <c r="BC1" s="33"/>
+      <c r="BD1" s="33"/>
+      <c r="BE1" s="33"/>
+      <c r="BF1" s="33"/>
+      <c r="BG1" s="33"/>
+      <c r="BH1" s="33"/>
+      <c r="BI1" s="33"/>
+      <c r="BJ1" s="33"/>
+      <c r="BK1" s="33"/>
+      <c r="BL1" s="33"/>
+      <c r="BM1" s="33"/>
+      <c r="BN1" s="33"/>
+      <c r="BO1" s="33"/>
+      <c r="BP1" s="33"/>
+      <c r="BQ1" s="33"/>
+      <c r="BR1" s="33"/>
+      <c r="BS1" s="33"/>
+      <c r="BT1" s="33"/>
+      <c r="BU1" s="33"/>
+      <c r="BV1" s="33"/>
+      <c r="BW1" s="33"/>
+      <c r="BX1" s="33"/>
+      <c r="BY1" s="33"/>
+      <c r="BZ1" s="33"/>
+      <c r="CA1" s="33"/>
+      <c r="CB1" s="33"/>
+      <c r="CC1" s="33"/>
+      <c r="CD1" s="33"/>
+      <c r="CE1" s="33"/>
+      <c r="CF1" s="33"/>
+      <c r="CG1" s="33"/>
+      <c r="CH1" s="33"/>
+      <c r="CI1" s="33"/>
+      <c r="CJ1" s="33"/>
+      <c r="CK1" s="33"/>
+      <c r="CL1" s="33"/>
+      <c r="CM1" s="33"/>
+      <c r="CN1" s="33"/>
+      <c r="CO1" s="33"/>
+      <c r="CP1" s="33"/>
+      <c r="CQ1" s="33"/>
+      <c r="CR1" s="33"/>
+      <c r="CS1" s="33"/>
+      <c r="CT1" s="33"/>
+      <c r="CU1" s="33"/>
+      <c r="CV1" s="33"/>
+      <c r="CW1" s="33"/>
+      <c r="CX1" s="33"/>
+      <c r="CY1" s="33"/>
+      <c r="CZ1" s="33"/>
+      <c r="DA1" s="33"/>
+      <c r="DB1" s="33"/>
+      <c r="DC1" s="33"/>
+      <c r="DD1" s="33"/>
+      <c r="DE1" s="33"/>
+      <c r="DF1" s="33"/>
+      <c r="DG1" s="33"/>
+      <c r="DH1" s="33"/>
+      <c r="DI1" s="33"/>
+      <c r="DJ1" s="33"/>
+      <c r="DK1" s="33"/>
+      <c r="DL1" s="33"/>
+      <c r="DM1" s="33"/>
+      <c r="DN1" s="33"/>
+      <c r="DO1" s="33"/>
+      <c r="DP1" s="33"/>
+      <c r="DQ1" s="33"/>
+      <c r="DR1" s="33"/>
+      <c r="DS1" s="33"/>
+      <c r="DT1" s="33"/>
+      <c r="DU1" s="33"/>
+      <c r="DV1" s="33"/>
+      <c r="DW1" s="33"/>
+      <c r="DX1" s="33"/>
+      <c r="DY1" s="33"/>
+      <c r="DZ1" s="33"/>
+      <c r="EA1" s="33"/>
+      <c r="EB1" s="33"/>
+      <c r="EC1" s="33"/>
+      <c r="ED1" s="33"/>
+      <c r="EE1" s="33"/>
+      <c r="EF1" s="33"/>
+      <c r="EG1" s="33"/>
+      <c r="EH1" s="33"/>
+      <c r="EI1" s="33"/>
+      <c r="EJ1" s="33"/>
+      <c r="EK1" s="33"/>
+      <c r="EL1" s="33"/>
+      <c r="EM1" s="33"/>
+      <c r="EN1" s="33"/>
+      <c r="EO1" s="33"/>
+      <c r="EP1" s="33"/>
+      <c r="EQ1" s="33"/>
+      <c r="ER1" s="33"/>
+      <c r="ES1" s="33"/>
+      <c r="ET1" s="33"/>
+      <c r="EU1" s="33"/>
+      <c r="EV1" s="33"/>
+      <c r="EW1" s="33"/>
+      <c r="EX1" s="33"/>
+      <c r="EY1" s="33"/>
+      <c r="EZ1" s="33"/>
+      <c r="FA1" s="33"/>
+      <c r="FB1" s="33"/>
+      <c r="FC1" s="33"/>
+      <c r="FD1" s="33"/>
+      <c r="FE1" s="33"/>
+      <c r="FF1" s="33"/>
+      <c r="FG1" s="33"/>
+      <c r="FH1" s="33"/>
+      <c r="FI1" s="33"/>
+      <c r="FJ1" s="33"/>
+      <c r="FK1" s="33"/>
+      <c r="FL1" s="33"/>
+      <c r="FM1" s="33"/>
+      <c r="FN1" s="33"/>
+      <c r="FO1" s="33"/>
+      <c r="FP1" s="33"/>
+      <c r="FQ1" s="33"/>
+      <c r="FR1" s="33"/>
+      <c r="FS1" s="33"/>
+      <c r="FT1" s="33"/>
+      <c r="FU1" s="33"/>
+      <c r="FV1" s="33"/>
+      <c r="FW1" s="33"/>
+      <c r="FX1" s="33"/>
+      <c r="FY1" s="33"/>
+      <c r="FZ1" s="33"/>
+      <c r="GA1" s="33"/>
+      <c r="GB1" s="33"/>
+      <c r="GC1" s="33"/>
+      <c r="GD1" s="33"/>
+      <c r="GE1" s="33"/>
+      <c r="GF1" s="33"/>
+      <c r="GG1" s="33"/>
+      <c r="GH1" s="33"/>
+      <c r="GI1" s="33"/>
+      <c r="GJ1" s="33"/>
+      <c r="GK1" s="33"/>
+      <c r="GL1" s="33"/>
+      <c r="GM1" s="33"/>
+      <c r="GN1" s="33"/>
+      <c r="GO1" s="33"/>
+      <c r="GP1" s="33"/>
+      <c r="GQ1" s="33"/>
+      <c r="GR1" s="33"/>
+      <c r="GS1" s="33"/>
+      <c r="GT1" s="33"/>
+      <c r="GU1" s="33"/>
+      <c r="GV1" s="33"/>
+      <c r="GW1" s="33"/>
+      <c r="GX1" s="33"/>
+      <c r="GY1" s="33"/>
+      <c r="GZ1" s="33"/>
+      <c r="HA1" s="33"/>
+      <c r="HB1" s="33"/>
+      <c r="HC1" s="33"/>
+      <c r="HD1" s="33"/>
+      <c r="HE1" s="33"/>
+      <c r="HF1" s="33"/>
+      <c r="HG1" s="33"/>
+      <c r="HH1" s="33"/>
+      <c r="HI1" s="33"/>
+      <c r="HJ1" s="33"/>
+      <c r="HK1" s="33"/>
+      <c r="HL1" s="33"/>
+      <c r="HM1" s="33"/>
+      <c r="HN1" s="33"/>
+      <c r="HO1" s="33"/>
+      <c r="HP1" s="33"/>
+      <c r="HQ1" s="33"/>
+      <c r="HR1" s="33"/>
+      <c r="HS1" s="33"/>
+      <c r="HT1" s="33"/>
+      <c r="HU1" s="33"/>
+      <c r="HV1" s="33"/>
+      <c r="HW1" s="34"/>
+      <c r="HX1" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:232" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="27" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="33" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="27" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="27" t="s">
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="28"/>
-      <c r="BC2" s="28"/>
-      <c r="BD2" s="28"/>
-      <c r="BE2" s="28"/>
-      <c r="BF2" s="28"/>
-      <c r="BG2" s="28"/>
-      <c r="BH2" s="28"/>
-      <c r="BI2" s="28"/>
-      <c r="BJ2" s="28"/>
-      <c r="BK2" s="28"/>
-      <c r="BL2" s="28"/>
-      <c r="BM2" s="28"/>
-      <c r="BN2" s="28"/>
-      <c r="BO2" s="28"/>
-      <c r="BP2" s="28"/>
-      <c r="BQ2" s="28"/>
-      <c r="BR2" s="29"/>
-      <c r="BS2" s="27" t="s">
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="33"/>
+      <c r="AY2" s="33"/>
+      <c r="AZ2" s="33"/>
+      <c r="BA2" s="33"/>
+      <c r="BB2" s="33"/>
+      <c r="BC2" s="33"/>
+      <c r="BD2" s="33"/>
+      <c r="BE2" s="33"/>
+      <c r="BF2" s="33"/>
+      <c r="BG2" s="33"/>
+      <c r="BH2" s="33"/>
+      <c r="BI2" s="33"/>
+      <c r="BJ2" s="33"/>
+      <c r="BK2" s="33"/>
+      <c r="BL2" s="33"/>
+      <c r="BM2" s="33"/>
+      <c r="BN2" s="33"/>
+      <c r="BO2" s="33"/>
+      <c r="BP2" s="33"/>
+      <c r="BQ2" s="33"/>
+      <c r="BR2" s="34"/>
+      <c r="BS2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="BT2" s="28"/>
-      <c r="BU2" s="28"/>
-      <c r="BV2" s="28"/>
-      <c r="BW2" s="28"/>
-      <c r="BX2" s="28"/>
-      <c r="BY2" s="28"/>
-      <c r="BZ2" s="28"/>
-      <c r="CA2" s="28"/>
-      <c r="CB2" s="28"/>
-      <c r="CC2" s="28"/>
-      <c r="CD2" s="28"/>
-      <c r="CE2" s="28"/>
-      <c r="CF2" s="28"/>
-      <c r="CG2" s="28"/>
-      <c r="CH2" s="28"/>
-      <c r="CI2" s="28"/>
-      <c r="CJ2" s="28"/>
-      <c r="CK2" s="28"/>
-      <c r="CL2" s="28"/>
-      <c r="CM2" s="28"/>
-      <c r="CN2" s="28"/>
-      <c r="CO2" s="28"/>
-      <c r="CP2" s="28"/>
-      <c r="CQ2" s="28"/>
-      <c r="CR2" s="28"/>
-      <c r="CS2" s="28"/>
-      <c r="CT2" s="28"/>
-      <c r="CU2" s="28"/>
-      <c r="CV2" s="28"/>
-      <c r="CW2" s="28"/>
-      <c r="CX2" s="28"/>
-      <c r="CY2" s="28"/>
-      <c r="CZ2" s="28"/>
-      <c r="DA2" s="28"/>
-      <c r="DB2" s="28"/>
-      <c r="DC2" s="28"/>
-      <c r="DD2" s="28"/>
-      <c r="DE2" s="28"/>
-      <c r="DF2" s="28"/>
-      <c r="DG2" s="28"/>
-      <c r="DH2" s="28"/>
-      <c r="DI2" s="28"/>
-      <c r="DJ2" s="28"/>
-      <c r="DK2" s="28"/>
-      <c r="DL2" s="28"/>
-      <c r="DM2" s="28"/>
-      <c r="DN2" s="28"/>
-      <c r="DO2" s="28"/>
-      <c r="DP2" s="28"/>
-      <c r="DQ2" s="28"/>
-      <c r="DR2" s="28"/>
-      <c r="DS2" s="28"/>
-      <c r="DT2" s="28"/>
-      <c r="DU2" s="28"/>
-      <c r="DV2" s="28"/>
-      <c r="DW2" s="28"/>
-      <c r="DX2" s="28"/>
-      <c r="DY2" s="28"/>
-      <c r="DZ2" s="28"/>
-      <c r="EA2" s="28"/>
-      <c r="EB2" s="28"/>
-      <c r="EC2" s="28"/>
-      <c r="ED2" s="28"/>
-      <c r="EE2" s="28"/>
-      <c r="EF2" s="28"/>
-      <c r="EG2" s="28"/>
-      <c r="EH2" s="28"/>
-      <c r="EI2" s="28"/>
-      <c r="EJ2" s="28"/>
-      <c r="EK2" s="28"/>
-      <c r="EL2" s="28"/>
-      <c r="EM2" s="28"/>
-      <c r="EN2" s="28"/>
-      <c r="EO2" s="28"/>
-      <c r="EP2" s="28"/>
-      <c r="EQ2" s="28"/>
-      <c r="ER2" s="28"/>
-      <c r="ES2" s="28"/>
-      <c r="ET2" s="28"/>
-      <c r="EU2" s="28"/>
-      <c r="EV2" s="28"/>
-      <c r="EW2" s="28"/>
-      <c r="EX2" s="28"/>
-      <c r="EY2" s="29"/>
-      <c r="EZ2" s="27" t="s">
+      <c r="BT2" s="33"/>
+      <c r="BU2" s="33"/>
+      <c r="BV2" s="33"/>
+      <c r="BW2" s="33"/>
+      <c r="BX2" s="33"/>
+      <c r="BY2" s="33"/>
+      <c r="BZ2" s="33"/>
+      <c r="CA2" s="33"/>
+      <c r="CB2" s="33"/>
+      <c r="CC2" s="33"/>
+      <c r="CD2" s="33"/>
+      <c r="CE2" s="33"/>
+      <c r="CF2" s="33"/>
+      <c r="CG2" s="33"/>
+      <c r="CH2" s="33"/>
+      <c r="CI2" s="33"/>
+      <c r="CJ2" s="33"/>
+      <c r="CK2" s="33"/>
+      <c r="CL2" s="33"/>
+      <c r="CM2" s="33"/>
+      <c r="CN2" s="33"/>
+      <c r="CO2" s="33"/>
+      <c r="CP2" s="33"/>
+      <c r="CQ2" s="33"/>
+      <c r="CR2" s="33"/>
+      <c r="CS2" s="33"/>
+      <c r="CT2" s="33"/>
+      <c r="CU2" s="33"/>
+      <c r="CV2" s="33"/>
+      <c r="CW2" s="33"/>
+      <c r="CX2" s="33"/>
+      <c r="CY2" s="33"/>
+      <c r="CZ2" s="33"/>
+      <c r="DA2" s="33"/>
+      <c r="DB2" s="33"/>
+      <c r="DC2" s="33"/>
+      <c r="DD2" s="33"/>
+      <c r="DE2" s="33"/>
+      <c r="DF2" s="33"/>
+      <c r="DG2" s="33"/>
+      <c r="DH2" s="33"/>
+      <c r="DI2" s="33"/>
+      <c r="DJ2" s="33"/>
+      <c r="DK2" s="33"/>
+      <c r="DL2" s="33"/>
+      <c r="DM2" s="33"/>
+      <c r="DN2" s="33"/>
+      <c r="DO2" s="33"/>
+      <c r="DP2" s="33"/>
+      <c r="DQ2" s="33"/>
+      <c r="DR2" s="33"/>
+      <c r="DS2" s="33"/>
+      <c r="DT2" s="33"/>
+      <c r="DU2" s="33"/>
+      <c r="DV2" s="33"/>
+      <c r="DW2" s="33"/>
+      <c r="DX2" s="33"/>
+      <c r="DY2" s="33"/>
+      <c r="DZ2" s="33"/>
+      <c r="EA2" s="33"/>
+      <c r="EB2" s="33"/>
+      <c r="EC2" s="33"/>
+      <c r="ED2" s="33"/>
+      <c r="EE2" s="33"/>
+      <c r="EF2" s="33"/>
+      <c r="EG2" s="33"/>
+      <c r="EH2" s="33"/>
+      <c r="EI2" s="33"/>
+      <c r="EJ2" s="33"/>
+      <c r="EK2" s="33"/>
+      <c r="EL2" s="33"/>
+      <c r="EM2" s="33"/>
+      <c r="EN2" s="33"/>
+      <c r="EO2" s="33"/>
+      <c r="EP2" s="33"/>
+      <c r="EQ2" s="33"/>
+      <c r="ER2" s="33"/>
+      <c r="ES2" s="33"/>
+      <c r="ET2" s="33"/>
+      <c r="EU2" s="33"/>
+      <c r="EV2" s="33"/>
+      <c r="EW2" s="33"/>
+      <c r="EX2" s="33"/>
+      <c r="EY2" s="34"/>
+      <c r="EZ2" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="FA2" s="29"/>
-      <c r="FB2" s="27" t="s">
+      <c r="FA2" s="34"/>
+      <c r="FB2" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="FC2" s="28"/>
-      <c r="FD2" s="28"/>
-      <c r="FE2" s="28"/>
-      <c r="FF2" s="28"/>
-      <c r="FG2" s="28"/>
-      <c r="FH2" s="28"/>
-      <c r="FI2" s="28"/>
-      <c r="FJ2" s="28"/>
-      <c r="FK2" s="28"/>
-      <c r="FL2" s="28"/>
-      <c r="FM2" s="28"/>
-      <c r="FN2" s="28"/>
-      <c r="FO2" s="28"/>
-      <c r="FP2" s="28"/>
-      <c r="FQ2" s="28"/>
-      <c r="FR2" s="28"/>
-      <c r="FS2" s="28"/>
-      <c r="FT2" s="28"/>
-      <c r="FU2" s="28"/>
-      <c r="FV2" s="28"/>
-      <c r="FW2" s="28"/>
-      <c r="FX2" s="28"/>
-      <c r="FY2" s="28"/>
-      <c r="FZ2" s="28"/>
-      <c r="GA2" s="28"/>
-      <c r="GB2" s="28"/>
-      <c r="GC2" s="28"/>
-      <c r="GD2" s="28"/>
-      <c r="GE2" s="28"/>
-      <c r="GF2" s="28"/>
-      <c r="GG2" s="28"/>
-      <c r="GH2" s="29"/>
-      <c r="GI2" s="27" t="s">
+      <c r="FC2" s="33"/>
+      <c r="FD2" s="33"/>
+      <c r="FE2" s="33"/>
+      <c r="FF2" s="33"/>
+      <c r="FG2" s="33"/>
+      <c r="FH2" s="33"/>
+      <c r="FI2" s="33"/>
+      <c r="FJ2" s="33"/>
+      <c r="FK2" s="33"/>
+      <c r="FL2" s="33"/>
+      <c r="FM2" s="33"/>
+      <c r="FN2" s="33"/>
+      <c r="FO2" s="33"/>
+      <c r="FP2" s="33"/>
+      <c r="FQ2" s="33"/>
+      <c r="FR2" s="33"/>
+      <c r="FS2" s="33"/>
+      <c r="FT2" s="33"/>
+      <c r="FU2" s="33"/>
+      <c r="FV2" s="33"/>
+      <c r="FW2" s="33"/>
+      <c r="FX2" s="33"/>
+      <c r="FY2" s="33"/>
+      <c r="FZ2" s="33"/>
+      <c r="GA2" s="33"/>
+      <c r="GB2" s="33"/>
+      <c r="GC2" s="33"/>
+      <c r="GD2" s="33"/>
+      <c r="GE2" s="33"/>
+      <c r="GF2" s="33"/>
+      <c r="GG2" s="33"/>
+      <c r="GH2" s="34"/>
+      <c r="GI2" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="GJ2" s="28"/>
-      <c r="GK2" s="28"/>
-      <c r="GL2" s="28"/>
-      <c r="GM2" s="28"/>
-      <c r="GN2" s="28"/>
-      <c r="GO2" s="28"/>
-      <c r="GP2" s="28"/>
-      <c r="GQ2" s="28"/>
-      <c r="GR2" s="28"/>
-      <c r="GS2" s="28"/>
-      <c r="GT2" s="28"/>
-      <c r="GU2" s="28"/>
-      <c r="GV2" s="28"/>
-      <c r="GW2" s="28"/>
-      <c r="GX2" s="28"/>
-      <c r="GY2" s="28"/>
-      <c r="GZ2" s="28"/>
-      <c r="HA2" s="28"/>
-      <c r="HB2" s="29"/>
-      <c r="HC2" s="27" t="s">
+      <c r="GJ2" s="33"/>
+      <c r="GK2" s="33"/>
+      <c r="GL2" s="33"/>
+      <c r="GM2" s="33"/>
+      <c r="GN2" s="33"/>
+      <c r="GO2" s="33"/>
+      <c r="GP2" s="33"/>
+      <c r="GQ2" s="33"/>
+      <c r="GR2" s="33"/>
+      <c r="GS2" s="33"/>
+      <c r="GT2" s="33"/>
+      <c r="GU2" s="33"/>
+      <c r="GV2" s="33"/>
+      <c r="GW2" s="33"/>
+      <c r="GX2" s="33"/>
+      <c r="GY2" s="33"/>
+      <c r="GZ2" s="33"/>
+      <c r="HA2" s="33"/>
+      <c r="HB2" s="34"/>
+      <c r="HC2" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="HD2" s="28"/>
-      <c r="HE2" s="28"/>
-      <c r="HF2" s="28"/>
-      <c r="HG2" s="28"/>
-      <c r="HH2" s="28"/>
-      <c r="HI2" s="28"/>
-      <c r="HJ2" s="28"/>
-      <c r="HK2" s="28"/>
-      <c r="HL2" s="28"/>
-      <c r="HM2" s="29"/>
-      <c r="HN2" s="27" t="s">
+      <c r="HD2" s="33"/>
+      <c r="HE2" s="33"/>
+      <c r="HF2" s="33"/>
+      <c r="HG2" s="33"/>
+      <c r="HH2" s="33"/>
+      <c r="HI2" s="33"/>
+      <c r="HJ2" s="33"/>
+      <c r="HK2" s="33"/>
+      <c r="HL2" s="33"/>
+      <c r="HM2" s="34"/>
+      <c r="HN2" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="HO2" s="28"/>
-      <c r="HP2" s="28"/>
-      <c r="HQ2" s="28"/>
-      <c r="HR2" s="28"/>
-      <c r="HS2" s="28"/>
-      <c r="HT2" s="28"/>
-      <c r="HU2" s="28"/>
-      <c r="HV2" s="29"/>
+      <c r="HO2" s="33"/>
+      <c r="HP2" s="33"/>
+      <c r="HQ2" s="33"/>
+      <c r="HR2" s="33"/>
+      <c r="HS2" s="33"/>
+      <c r="HT2" s="33"/>
+      <c r="HU2" s="33"/>
+      <c r="HV2" s="34"/>
       <c r="HW2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="HX2" s="44"/>
+      <c r="HX2" s="11"/>
     </row>
     <row r="3" spans="1:232" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="1" t="s">
         <v>95</v>
       </c>
@@ -53858,7 +53856,7 @@
     <mergeCell ref="HC2:HM2"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:HX66">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -53870,8 +53868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2CCE95-B03C-4112-B71E-2E08312A9B7D}">
   <dimension ref="A1:BN60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="E5:L27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53898,76 +53896,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="27" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28"/>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="29"/>
-      <c r="AU1" s="37" t="s">
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="36"/>
-      <c r="BA1" s="36"/>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="36"/>
-      <c r="BD1" s="36"/>
-      <c r="BE1" s="36"/>
-      <c r="BF1" s="36"/>
-      <c r="BG1" s="36"/>
-      <c r="BH1" s="36"/>
-      <c r="BI1" s="36"/>
-      <c r="BJ1" s="36"/>
-      <c r="BK1" s="36"/>
-      <c r="BL1" s="36"/>
-      <c r="BM1" s="36"/>
-      <c r="BN1" s="36"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="41"/>
+      <c r="BA1" s="41"/>
+      <c r="BB1" s="41"/>
+      <c r="BC1" s="41"/>
+      <c r="BD1" s="41"/>
+      <c r="BE1" s="41"/>
+      <c r="BF1" s="41"/>
+      <c r="BG1" s="41"/>
+      <c r="BH1" s="41"/>
+      <c r="BI1" s="41"/>
+      <c r="BJ1" s="41"/>
+      <c r="BK1" s="41"/>
+      <c r="BL1" s="41"/>
+      <c r="BM1" s="41"/>
+      <c r="BN1" s="41"/>
     </row>
     <row r="2" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="6" t="s">
@@ -65855,22 +65853,22 @@
     <mergeCell ref="AU1:BN1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:B60">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1 C2:M60 N3">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1 O2:AS60 AT3">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU1 AU2:BM60 BN3">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -67634,7 +67632,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Main/SWP annual total deliveries.xlsx
+++ b/Main/SWP annual total deliveries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armen\Desktop\Drought Indicators - SoCal\Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A34478-0415-4387-9406-5D5D3D973D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98FD3D4-5D99-4654-A07C-2CCD1F8ABB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -943,7 +943,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -973,6 +973,26 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -9751,15 +9771,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87422FAC-D91D-421B-A850-0A527C970FD0}">
-  <dimension ref="A1:HX66"/>
+  <dimension ref="A1:HZ66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="GS30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="HZ60" sqref="HZ60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:232" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:234" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>119</v>
       </c>
@@ -10005,7 +10025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:232" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:234" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41"/>
       <c r="B2" s="38"/>
       <c r="C2" s="39"/>
@@ -10261,7 +10281,7 @@
       </c>
       <c r="HX2" s="11"/>
     </row>
-    <row r="3" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A3" s="41"/>
       <c r="B3" s="1" t="s">
         <v>95</v>
@@ -10498,7 +10518,7 @@
       <c r="HW3" s="10"/>
       <c r="HX3" s="10"/>
     </row>
-    <row r="4" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:234" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
@@ -11117,7 +11137,7 @@
       <c r="HW4" s="10"/>
       <c r="HX4" s="10"/>
     </row>
-    <row r="5" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:234" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="E5" s="2"/>
       <c r="F5" s="1"/>
@@ -11259,7 +11279,7 @@
       <c r="HW5" s="10"/>
       <c r="HX5" s="10"/>
     </row>
-    <row r="6" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1962</v>
       </c>
@@ -11956,8 +11976,11 @@
       <c r="HX6" s="10">
         <v>8906</v>
       </c>
+      <c r="HZ6">
+        <v>1962</v>
+      </c>
     </row>
-    <row r="7" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1963</v>
       </c>
@@ -12654,8 +12677,11 @@
       <c r="HX7" s="10">
         <v>12645</v>
       </c>
+      <c r="HZ7">
+        <v>1963</v>
+      </c>
     </row>
-    <row r="8" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1964</v>
       </c>
@@ -13352,8 +13378,11 @@
       <c r="HX8" s="10">
         <v>20911</v>
       </c>
+      <c r="HZ8">
+        <v>1964</v>
+      </c>
     </row>
-    <row r="9" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1965</v>
       </c>
@@ -14050,8 +14079,11 @@
       <c r="HX9" s="10">
         <v>34026</v>
       </c>
+      <c r="HZ9">
+        <v>1965</v>
+      </c>
     </row>
-    <row r="10" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1966</v>
       </c>
@@ -14748,8 +14780,11 @@
       <c r="HX10" s="10">
         <v>54913</v>
       </c>
+      <c r="HZ10">
+        <v>1966</v>
+      </c>
     </row>
-    <row r="11" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1967</v>
       </c>
@@ -15446,8 +15481,11 @@
       <c r="HX11" s="10">
         <v>56763</v>
       </c>
+      <c r="HZ11">
+        <v>1967</v>
+      </c>
     </row>
-    <row r="12" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1968</v>
       </c>
@@ -16144,8 +16182,11 @@
       <c r="HX12" s="10">
         <v>294457</v>
       </c>
+      <c r="HZ12">
+        <v>1968</v>
+      </c>
     </row>
-    <row r="13" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1969</v>
       </c>
@@ -16842,8 +16883,11 @@
       <c r="HX13" s="10">
         <v>268104</v>
       </c>
+      <c r="HZ13">
+        <v>1969</v>
+      </c>
     </row>
-    <row r="14" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1970</v>
       </c>
@@ -17540,8 +17584,11 @@
       <c r="HX14" s="10">
         <v>369459</v>
       </c>
+      <c r="HZ14">
+        <v>1970</v>
+      </c>
     </row>
-    <row r="15" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1971</v>
       </c>
@@ -18238,8 +18285,11 @@
       <c r="HX15" s="10">
         <v>654442</v>
       </c>
+      <c r="HZ15">
+        <v>1971</v>
+      </c>
     </row>
-    <row r="16" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1972</v>
       </c>
@@ -18936,8 +18986,11 @@
       <c r="HX16" s="10">
         <v>1037770</v>
       </c>
+      <c r="HZ16">
+        <v>1972</v>
+      </c>
     </row>
-    <row r="17" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1973</v>
       </c>
@@ -19634,8 +19687,11 @@
       <c r="HX17" s="10">
         <v>737532</v>
       </c>
+      <c r="HZ17">
+        <v>1973</v>
+      </c>
     </row>
-    <row r="18" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1974</v>
       </c>
@@ -20332,8 +20388,11 @@
       <c r="HX18" s="10">
         <v>878947</v>
       </c>
+      <c r="HZ18">
+        <v>1974</v>
+      </c>
     </row>
-    <row r="19" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1975</v>
       </c>
@@ -21030,8 +21089,11 @@
       <c r="HX19" s="10">
         <v>1230830</v>
       </c>
+      <c r="HZ19">
+        <v>1975</v>
+      </c>
     </row>
-    <row r="20" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1976</v>
       </c>
@@ -21728,8 +21790,11 @@
       <c r="HX20" s="10">
         <v>1380124</v>
       </c>
+      <c r="HZ20">
+        <v>1976</v>
+      </c>
     </row>
-    <row r="21" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1977</v>
       </c>
@@ -22426,8 +22491,11 @@
       <c r="HX21" s="10">
         <v>582381</v>
       </c>
+      <c r="HZ21">
+        <v>1977</v>
+      </c>
     </row>
-    <row r="22" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1978</v>
       </c>
@@ -23124,8 +23192,11 @@
       <c r="HX22" s="10">
         <v>1458733</v>
       </c>
+      <c r="HZ22">
+        <v>1978</v>
+      </c>
     </row>
-    <row r="23" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1979</v>
       </c>
@@ -23822,8 +23893,11 @@
       <c r="HX23" s="10">
         <v>1666457</v>
       </c>
+      <c r="HZ23">
+        <v>1979</v>
+      </c>
     </row>
-    <row r="24" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1980</v>
       </c>
@@ -24520,8 +24594,11 @@
       <c r="HX24" s="10">
         <v>1536456</v>
       </c>
+      <c r="HZ24">
+        <v>1980</v>
+      </c>
     </row>
-    <row r="25" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1981</v>
       </c>
@@ -25218,8 +25295,11 @@
       <c r="HX25" s="10">
         <v>1918563</v>
       </c>
+      <c r="HZ25">
+        <v>1981</v>
+      </c>
     </row>
-    <row r="26" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1982</v>
       </c>
@@ -25916,8 +25996,11 @@
       <c r="HX26" s="10">
         <v>1750862</v>
       </c>
+      <c r="HZ26">
+        <v>1982</v>
+      </c>
     </row>
-    <row r="27" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1983</v>
       </c>
@@ -26614,8 +26697,11 @@
       <c r="HX27" s="10">
         <v>1187156</v>
       </c>
+      <c r="HZ27">
+        <v>1983</v>
+      </c>
     </row>
-    <row r="28" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1984</v>
       </c>
@@ -27312,8 +27398,11 @@
       <c r="HX28" s="10">
         <v>1591416</v>
       </c>
+      <c r="HZ28">
+        <v>1984</v>
+      </c>
     </row>
-    <row r="29" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1985</v>
       </c>
@@ -28010,8 +28099,11 @@
       <c r="HX29" s="10">
         <v>1990295</v>
       </c>
+      <c r="HZ29">
+        <v>1985</v>
+      </c>
     </row>
-    <row r="30" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1986</v>
       </c>
@@ -28708,8 +28800,11 @@
       <c r="HX30" s="10">
         <v>1999155</v>
       </c>
+      <c r="HZ30">
+        <v>1986</v>
+      </c>
     </row>
-    <row r="31" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1987</v>
       </c>
@@ -29406,8 +29501,11 @@
       <c r="HX31" s="10">
         <v>2131608</v>
       </c>
+      <c r="HZ31">
+        <v>1987</v>
+      </c>
     </row>
-    <row r="32" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1988</v>
       </c>
@@ -30104,8 +30202,11 @@
       <c r="HX32" s="10">
         <v>2385122</v>
       </c>
+      <c r="HZ32">
+        <v>1988</v>
+      </c>
     </row>
-    <row r="33" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1989</v>
       </c>
@@ -30802,8 +30903,11 @@
       <c r="HX33" s="10">
         <v>2853747</v>
       </c>
+      <c r="HZ33">
+        <v>1989</v>
+      </c>
     </row>
-    <row r="34" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1990</v>
       </c>
@@ -31500,8 +31604,11 @@
       <c r="HX34" s="10">
         <v>2582151</v>
       </c>
+      <c r="HZ34">
+        <v>1990</v>
+      </c>
     </row>
-    <row r="35" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1991</v>
       </c>
@@ -32198,8 +32305,11 @@
       <c r="HX35" s="10">
         <v>549113</v>
       </c>
+      <c r="HZ35">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="36" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1992</v>
       </c>
@@ -32896,8 +33006,11 @@
       <c r="HX36" s="10">
         <v>1471454</v>
       </c>
+      <c r="HZ36">
+        <v>1992</v>
+      </c>
     </row>
-    <row r="37" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1993</v>
       </c>
@@ -33594,8 +33707,11 @@
       <c r="HX37" s="10">
         <v>2315235</v>
       </c>
+      <c r="HZ37">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="38" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1994</v>
       </c>
@@ -34292,8 +34408,11 @@
       <c r="HX38" s="10">
         <v>1861976</v>
       </c>
+      <c r="HZ38">
+        <v>1994</v>
+      </c>
     </row>
-    <row r="39" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1995</v>
       </c>
@@ -34990,8 +35109,11 @@
       <c r="HX39" s="10">
         <v>2031423</v>
       </c>
+      <c r="HZ39">
+        <v>1995</v>
+      </c>
     </row>
-    <row r="40" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1996</v>
       </c>
@@ -35688,8 +35810,11 @@
       <c r="HX40" s="10">
         <v>2543472</v>
       </c>
+      <c r="HZ40">
+        <v>1996</v>
+      </c>
     </row>
-    <row r="41" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1997</v>
       </c>
@@ -36386,8 +36511,11 @@
       <c r="HX41" s="10">
         <v>2405444</v>
       </c>
+      <c r="HZ41">
+        <v>1997</v>
+      </c>
     </row>
-    <row r="42" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1998</v>
       </c>
@@ -37084,8 +37212,11 @@
       <c r="HX42" s="10">
         <v>1764963</v>
       </c>
+      <c r="HZ42">
+        <v>1998</v>
+      </c>
     </row>
-    <row r="43" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1999</v>
       </c>
@@ -37782,8 +37913,11 @@
       <c r="HX43" s="10">
         <v>2898961</v>
       </c>
+      <c r="HZ43">
+        <v>1999</v>
+      </c>
     </row>
-    <row r="44" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2000</v>
       </c>
@@ -38480,8 +38614,11 @@
       <c r="HX44" s="10">
         <v>3569072</v>
       </c>
+      <c r="HZ44">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="45" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2001</v>
       </c>
@@ -39178,8 +39315,11 @@
       <c r="HX45" s="10">
         <v>2175194</v>
       </c>
+      <c r="HZ45">
+        <v>2001</v>
+      </c>
     </row>
-    <row r="46" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2002</v>
       </c>
@@ -39876,8 +40016,11 @@
       <c r="HX46" s="10">
         <v>2909555</v>
       </c>
+      <c r="HZ46">
+        <v>2002</v>
+      </c>
     </row>
-    <row r="47" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2003</v>
       </c>
@@ -40574,8 +40717,11 @@
       <c r="HX47" s="10">
         <v>3327811</v>
       </c>
+      <c r="HZ47">
+        <v>2003</v>
+      </c>
     </row>
-    <row r="48" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2004</v>
       </c>
@@ -41272,8 +41418,11 @@
       <c r="HX48" s="10">
         <v>3230590</v>
       </c>
+      <c r="HZ48">
+        <v>2004</v>
+      </c>
     </row>
-    <row r="49" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2005</v>
       </c>
@@ -41970,8 +42119,11 @@
       <c r="HX49" s="10">
         <v>3753874</v>
       </c>
+      <c r="HZ49">
+        <v>2005</v>
+      </c>
     </row>
-    <row r="50" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2006</v>
       </c>
@@ -42668,8 +42820,11 @@
       <c r="HX50" s="10">
         <v>3693938</v>
       </c>
+      <c r="HZ50">
+        <v>2006</v>
+      </c>
     </row>
-    <row r="51" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2007</v>
       </c>
@@ -43366,8 +43521,11 @@
       <c r="HX51" s="10">
         <v>3284475</v>
       </c>
+      <c r="HZ51">
+        <v>2007</v>
+      </c>
     </row>
-    <row r="52" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2008</v>
       </c>
@@ -44064,8 +44222,11 @@
       <c r="HX52" s="10">
         <v>2152219</v>
       </c>
+      <c r="HZ52">
+        <v>2008</v>
+      </c>
     </row>
-    <row r="53" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2009</v>
       </c>
@@ -44762,8 +44923,11 @@
       <c r="HX53" s="10">
         <v>2227564</v>
       </c>
+      <c r="HZ53">
+        <v>2009</v>
+      </c>
     </row>
-    <row r="54" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2010</v>
       </c>
@@ -45460,8 +45624,11 @@
       <c r="HX54" s="10">
         <v>2836927</v>
       </c>
+      <c r="HZ54">
+        <v>2010</v>
+      </c>
     </row>
-    <row r="55" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2011</v>
       </c>
@@ -46158,8 +46325,11 @@
       <c r="HX55" s="10">
         <v>3666432</v>
       </c>
+      <c r="HZ55">
+        <v>2011</v>
+      </c>
     </row>
-    <row r="56" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2012</v>
       </c>
@@ -46856,8 +47026,11 @@
       <c r="HX56" s="10">
         <v>2883211</v>
       </c>
+      <c r="HZ56">
+        <v>2012</v>
+      </c>
     </row>
-    <row r="57" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2013</v>
       </c>
@@ -47554,8 +47727,11 @@
       <c r="HX57" s="10">
         <v>2224875</v>
       </c>
+      <c r="HZ57">
+        <v>2013</v>
+      </c>
     </row>
-    <row r="58" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2014</v>
       </c>
@@ -48252,8 +48428,11 @@
       <c r="HX58" s="10">
         <v>1242286</v>
       </c>
+      <c r="HZ58">
+        <v>2014</v>
+      </c>
     </row>
-    <row r="59" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2015</v>
       </c>
@@ -48950,8 +49129,11 @@
       <c r="HX59" s="10">
         <v>1497970</v>
       </c>
+      <c r="HZ59">
+        <v>2015</v>
+      </c>
     </row>
-    <row r="60" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2016</v>
       </c>
@@ -49648,8 +49830,11 @@
       <c r="HX60" s="10">
         <v>2359869</v>
       </c>
+      <c r="HZ60">
+        <v>2016</v>
+      </c>
     </row>
-    <row r="61" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2017</v>
       </c>
@@ -50346,8 +50531,11 @@
       <c r="HX61" s="10">
         <v>3770284</v>
       </c>
+      <c r="HZ61">
+        <v>2017</v>
+      </c>
     </row>
-    <row r="62" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2018</v>
       </c>
@@ -51044,8 +51232,11 @@
       <c r="HX62" s="10">
         <v>2048578</v>
       </c>
+      <c r="HZ62">
+        <v>2018</v>
+      </c>
     </row>
-    <row r="63" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2019</v>
       </c>
@@ -51742,8 +51933,11 @@
       <c r="HX63" s="10">
         <v>3058493</v>
       </c>
+      <c r="HZ63">
+        <v>2019</v>
+      </c>
     </row>
-    <row r="64" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2020</v>
       </c>
@@ -52440,8 +52634,11 @@
       <c r="HX64" s="10">
         <v>1589256</v>
       </c>
+      <c r="HZ64">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="65" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2021</v>
       </c>
@@ -53138,8 +53335,11 @@
       <c r="HX65" s="10">
         <v>1365901</v>
       </c>
+      <c r="HZ65">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="66" spans="1:232" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:234" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2022</v>
       </c>
@@ -53835,6 +54035,9 @@
       </c>
       <c r="HX66" s="11">
         <v>1267989</v>
+      </c>
+      <c r="HZ66">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
@@ -53856,6 +54059,11 @@
     <mergeCell ref="HC2:HM2"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:HX66">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HZ6:HZ66">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
